--- a/test/functional/xlsx_files/chart_column12.xlsx
+++ b/test/functional/xlsx_files/chart_column12.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -149,24 +149,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="46847488"/>
-        <c:axId val="46849408"/>
+        <c:axId val="50010003"/>
+        <c:axId val="50010004"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46847488"/>
+        <c:axId val="50010003"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46849408"/>
+        <c:crossAx val="50010004"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46849408"/>
+        <c:axId val="50010004"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -174,7 +174,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46847488"/>
+        <c:crossAx val="50010003"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -187,7 +187,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>

--- a/test/functional/xlsx_files/chart_column12.xlsx
+++ b/test/functional/xlsx_files/chart_column12.xlsx
@@ -149,24 +149,34 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="50010003"/>
-        <c:axId val="50010004"/>
+        <c:axId val="46847488"/>
+        <c:axId val="46849408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50010003"/>
+        <c:axId val="46847488"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010004"/>
+        <c:crossAx val="46849408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50010004"/>
+        <c:axId val="46849408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -174,7 +184,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010003"/>
+        <c:crossAx val="46847488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
